--- a/Mouse_workbooks/CH_170602_C.xlsx
+++ b/Mouse_workbooks/CH_170602_C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Mouse_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Mouse_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -244,9 +244,6 @@
     <t>1xRL ear</t>
   </si>
   <si>
-    <t>2017_06_02_0000</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -254,12 +251,6 @@
   </si>
   <si>
     <t>DC steps from a very nice RS cell. Good Rs.</t>
-  </si>
-  <si>
-    <t>2017_06_02_0001</t>
-  </si>
-  <si>
-    <t>2017_06_02_0002</t>
   </si>
   <si>
     <t>V</t>
@@ -290,12 +281,6 @@
     <t>WCSTP targets (-4, -293), laser set to 3.5 on Clampex, 10 on power supply, using stacked ND filters (0.4_0.7). Nice data but seems like some rundown of facilitation at the end of the file.</t>
   </si>
   <si>
-    <t>2017_06_02_0003</t>
-  </si>
-  <si>
-    <t>2017_06_02_0004</t>
-  </si>
-  <si>
     <t xml:space="preserve">same as _0002 but with longer ISIs. </t>
   </si>
   <si>
@@ -305,21 +290,6 @@
     <t>HS1 at (-14, -8), pia at (10, 215). This is likely AM, but could be the anterior part of PM. Slice 5 has a small medial HVA, but slice 6 does not. Thus, I think this HVA is area AM.</t>
   </si>
   <si>
-    <t>2017_06_02_0005</t>
-  </si>
-  <si>
-    <t>2017_06_02_0006</t>
-  </si>
-  <si>
-    <t>2017_06_02_0007</t>
-  </si>
-  <si>
-    <t>Nice DC steps from an RS? Cell on HS1. This cell DC filters (one spike than nothing) Not a full set</t>
-  </si>
-  <si>
-    <t>Nice DC steps from an RS? Cell on HS1. This cell DC filters (one spike than nothing) Full set</t>
-  </si>
-  <si>
     <t>WCSTP targets (91, -248). Set to 4V in clampex, 10 on power supply, using stacked ND filters (0.7+0.4). Some rundown. Sweep 28 is very noisy</t>
   </si>
   <si>
@@ -336,12 +306,42 @@
   </si>
   <si>
     <t>WCSTP project, onto PY cells in the HVAs</t>
+  </si>
+  <si>
+    <t>Nice DC steps from an RS? Cell on HS2. This cell DC filters (one spike than nothing) Not a full set</t>
+  </si>
+  <si>
+    <t>Nice DC steps from an RS? Cell on HS2. This cell DC filters (one spike than nothing) Full set</t>
+  </si>
+  <si>
+    <t>2017_06_23_0000</t>
+  </si>
+  <si>
+    <t>2017_06_23_0001</t>
+  </si>
+  <si>
+    <t>2017_06_23_0002</t>
+  </si>
+  <si>
+    <t>2017_06_23_0003</t>
+  </si>
+  <si>
+    <t>2017_06_23_0004</t>
+  </si>
+  <si>
+    <t>2017_06_23_0005</t>
+  </si>
+  <si>
+    <t>2017_06_23_0006</t>
+  </si>
+  <si>
+    <t>2017_06_23_0007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="58" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="38" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -1682,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -1694,10 +1694,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
@@ -1707,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -1722,7 +1722,7 @@
         <v>-85</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
@@ -1732,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="37">
         <v>4</v>
@@ -1747,7 +1747,7 @@
         <v>-85</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
@@ -1757,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="37">
         <v>4</v>
@@ -1772,7 +1772,7 @@
         <v>-85</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="40"/>
@@ -1786,10 +1786,10 @@
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="40"/>
@@ -1821,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5">
         <v>3</v>
@@ -1833,10 +1833,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40"/>
@@ -1846,10 +1846,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="37">
         <v>3</v>
@@ -1858,10 +1858,10 @@
         <v>34</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40"/>
@@ -1871,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>-85</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
@@ -1896,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="37">
         <v>3</v>
@@ -1911,7 +1911,7 @@
         <v>-85</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
@@ -1926,7 +1926,7 @@
       <c r="E18" s="36"/>
       <c r="F18" s="23"/>
       <c r="G18" s="38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
